--- a/outputs-GTDB-r202/g__Sodaliphilus.xlsx
+++ b/outputs-GTDB-r202/g__Sodaliphilus.xlsx
@@ -2742,7 +2742,7 @@
       </c>
       <c r="BB13" t="inlineStr">
         <is>
-          <t>s__Sodaliphilus sp900318645</t>
+          <t>s__Sodaliphilus sp900318645(reject)</t>
         </is>
       </c>
     </row>
@@ -6482,7 +6482,7 @@
       </c>
       <c r="BB35" t="inlineStr">
         <is>
-          <t>s__Sodaliphilus pleomorphus</t>
+          <t>s__Sodaliphilus pleomorphus(reject)</t>
         </is>
       </c>
     </row>
